--- a/BenLZ/Zhang no HB/results/RunHistory.xlsx
+++ b/BenLZ/Zhang no HB/results/RunHistory.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -65,14 +65,17 @@
     <t>LZC_nohb_2018_2_28_22_48</t>
   </si>
   <si>
-    <t>29/02/2018</t>
+    <t>LZC_nohb_2018_3_1_9_44</t>
+  </si>
+  <si>
+    <t>Run #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +92,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +113,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,56 +287,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -475,26 +478,72 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <bottom style="double">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="double">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -508,17 +557,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A1:H1048576"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="name" dataDxfId="8"/>
-    <tableColumn id="2" name="date" dataDxfId="7"/>
-    <tableColumn id="3" name="time" dataDxfId="6"/>
-    <tableColumn id="4" name="data ratio" dataDxfId="5"/>
-    <tableColumn id="5" name="rate" dataDxfId="4"/>
-    <tableColumn id="6" name="event_flag (1=hilbert)" dataDxfId="3"/>
-    <tableColumn id="7" name="num" dataDxfId="2"/>
-    <tableColumn id="8" name="lim" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:I1048576"/>
+  <tableColumns count="9">
+    <tableColumn id="9" name="Run #" dataDxfId="8"/>
+    <tableColumn id="1" name="name" dataDxfId="7"/>
+    <tableColumn id="2" name="date" dataDxfId="6"/>
+    <tableColumn id="3" name="time" dataDxfId="5"/>
+    <tableColumn id="4" name="data ratio" dataDxfId="4"/>
+    <tableColumn id="5" name="rate" dataDxfId="3"/>
+    <tableColumn id="6" name="event_flag (1=hilbert)" dataDxfId="2"/>
+    <tableColumn id="7" name="num" dataDxfId="1"/>
+    <tableColumn id="8" name="lim" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -787,156 +837,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="8" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="11.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="21.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="4.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="10.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" s="20" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>43159</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="5">
         <v>0.2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="3">
         <v>43159</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="1">
         <v>0.67222222222222217</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="2">
         <v>0.2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="2">
         <v>30</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="3">
         <v>43159</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="1">
         <v>0.95000000000000007</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="2">
         <v>0.2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="2">
         <v>30</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3">
+        <v>43160</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="2">
         <v>20</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="2">
         <v>30</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="1048576" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1048576" s="11"/>
-      <c r="B1048576" s="12"/>
-      <c r="C1048576" s="12"/>
-      <c r="D1048576" s="12"/>
-      <c r="E1048576" s="12"/>
-      <c r="F1048576" s="12"/>
-      <c r="G1048576" s="12"/>
-      <c r="H1048576" s="13"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1048576" s="15"/>
+      <c r="B1048576" s="10"/>
+      <c r="C1048576" s="11"/>
+      <c r="D1048576" s="11"/>
+      <c r="E1048576" s="11"/>
+      <c r="F1048576" s="11"/>
+      <c r="G1048576" s="11"/>
+      <c r="H1048576" s="11"/>
+      <c r="I1048576" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BenLZ/Zhang no HB/results/RunHistory.xlsx
+++ b/BenLZ/Zhang no HB/results/RunHistory.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -62,13 +62,10 @@
     <t>LZC_nohb_2018_2_28_16_8</t>
   </si>
   <si>
-    <t>LZC_nohb_2018_2_28_22_48</t>
-  </si>
-  <si>
-    <t>LZC_nohb_2018_3_1_9_44</t>
-  </si>
-  <si>
     <t>Run #</t>
+  </si>
+  <si>
+    <t>LZC_nohb_2018_3_3_23_53</t>
   </si>
 </sst>
 </file>
@@ -557,8 +554,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:I1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I1048574" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:I1048574"/>
   <tableColumns count="9">
     <tableColumn id="9" name="Run #" dataDxfId="8"/>
     <tableColumn id="1" name="name" dataDxfId="7"/>
@@ -837,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,7 +854,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="20" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -947,19 +944,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43159</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>0.95000000000000007</v>
+        <v>0.99513888888888891</v>
       </c>
       <c r="E4" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -975,50 +972,11 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43160</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.4055555555555555</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>30</v>
-      </c>
-      <c r="I5" s="9">
-        <v>30</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>30</v>
-      </c>
-      <c r="I6" s="9">
-        <v>30</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
@@ -1110,26 +1068,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1048576" s="15"/>
-      <c r="B1048576" s="10"/>
-      <c r="C1048576" s="11"/>
-      <c r="D1048576" s="11"/>
-      <c r="E1048576" s="11"/>
-      <c r="F1048576" s="11"/>
-      <c r="G1048576" s="11"/>
-      <c r="H1048576" s="11"/>
-      <c r="I1048576" s="12"/>
+    <row r="1048574" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1048574" s="15"/>
+      <c r="B1048574" s="10"/>
+      <c r="C1048574" s="11"/>
+      <c r="D1048574" s="11"/>
+      <c r="E1048574" s="11"/>
+      <c r="F1048574" s="11"/>
+      <c r="G1048574" s="11"/>
+      <c r="H1048574" s="11"/>
+      <c r="I1048574" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
